--- a/ArticleManage/main_working_folder/output_folders/Data 125 Comparison of Activated Carbons/Data125_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 125 Comparison of Activated Carbons/Data125_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="400" sheetId="1" r:id="rId1"/>
-    <sheet name="600" sheetId="2" r:id="rId4"/>
-    <sheet name="800" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3 400  0-1-0-120 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 600  0-1-0-120 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3 800  0-1-0-120 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -96,7 +96,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 400</a:t>
+              <a:t>Izoterma adsorpcji probki 400 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -155,12 +155,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'400'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 400  0-1-0-120 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'400'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 400  0-1-0-120 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -173,6 +173,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -242,6 +244,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="120"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -406,7 +410,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 600</a:t>
+              <a:t>Izoterma adsorpcji probki 600 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -465,12 +469,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'600'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 600  0-1-0-120 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'600'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 600  0-1-0-120 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -483,6 +487,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -552,6 +558,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="120"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -716,7 +724,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 800</a:t>
+              <a:t>Izoterma adsorpcji probki 800 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -775,12 +783,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'800'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 800  0-1-0-120 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'800'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 800  0-1-0-120 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -793,6 +801,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -862,6 +872,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="120"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 125 Comparison of Activated Carbons/Data125_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 125 Comparison of Activated Carbons/Data125_all_graphs_excel.xlsx
@@ -3090,7 +3090,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3111,373 +3111,245 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0538</v>
+        <v>0.992</v>
       </c>
       <c r="B3" s="0">
-        <v>14.8426</v>
+        <v>62.6921</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0757</v>
+        <v>0.9822</v>
       </c>
       <c r="B4" s="0">
-        <v>18.3334</v>
+        <v>55.5086</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0975</v>
+        <v>0.9736</v>
       </c>
       <c r="B5" s="0">
-        <v>19.939</v>
+        <v>52.1407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1193</v>
+        <v>0.9529</v>
       </c>
       <c r="B6" s="0">
-        <v>20.5832</v>
+        <v>49.8932</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1412</v>
+        <v>0.9438</v>
       </c>
       <c r="B7" s="0">
-        <v>21.0756</v>
+        <v>47.8719</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.163</v>
+        <v>0.9277</v>
       </c>
       <c r="B8" s="0">
-        <v>21.5933</v>
+        <v>45.6251</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1848</v>
+        <v>0.9002</v>
       </c>
       <c r="B9" s="0">
-        <v>22.2627</v>
+        <v>44.0499</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2066</v>
+        <v>0.8755</v>
       </c>
       <c r="B10" s="0">
-        <v>22.8816</v>
+        <v>42.2507</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2285</v>
+        <v>0.8526</v>
       </c>
       <c r="B11" s="0">
-        <v>23.315</v>
+        <v>41.0503</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2503</v>
+        <v>0.8034</v>
       </c>
       <c r="B12" s="0">
-        <v>23.664</v>
+        <v>39.0978</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2721</v>
+        <v>0.7506</v>
       </c>
       <c r="B13" s="0">
-        <v>23.9624</v>
+        <v>37.444</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2939</v>
+        <v>0.7019</v>
       </c>
       <c r="B14" s="0">
-        <v>24.3789</v>
+        <v>35.716</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3158</v>
+        <v>0.6521</v>
       </c>
       <c r="B15" s="0">
-        <v>24.9557</v>
+        <v>34.3619</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3376</v>
+        <v>0.6017</v>
       </c>
       <c r="B16" s="0">
-        <v>25.389</v>
+        <v>32.484</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3594</v>
+        <v>0.5553</v>
       </c>
       <c r="B17" s="0">
-        <v>25.8139</v>
+        <v>31.0557</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3813</v>
+        <v>0.4997</v>
       </c>
       <c r="B18" s="0">
-        <v>26.4075</v>
+        <v>29.7007</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4031</v>
+        <v>0.4476</v>
       </c>
       <c r="B19" s="0">
-        <v>26.9927</v>
+        <v>28.4959</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4249</v>
+        <v>0.4115</v>
       </c>
       <c r="B20" s="0">
-        <v>27.6031</v>
+        <v>27.3683</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4467</v>
+        <v>0.3599</v>
       </c>
       <c r="B21" s="0">
-        <v>28.3991</v>
+        <v>25.9391</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4686</v>
+        <v>0.3095</v>
       </c>
       <c r="B22" s="0">
-        <v>28.8831</v>
+        <v>24.959</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4904</v>
+        <v>0.2912</v>
       </c>
       <c r="B23" s="0">
-        <v>29.4008</v>
+        <v>24.283</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5122</v>
+        <v>0.2476</v>
       </c>
       <c r="B24" s="0">
-        <v>29.8679</v>
+        <v>23.678</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.534</v>
+        <v>0.2202</v>
       </c>
       <c r="B25" s="0">
-        <v>30.4868</v>
+        <v>23.1501</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5559</v>
+        <v>0.1972</v>
       </c>
       <c r="B26" s="0">
-        <v>31.0382</v>
+        <v>22.6978</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5777</v>
+        <v>0.1783</v>
       </c>
       <c r="B27" s="0">
-        <v>31.6402</v>
+        <v>22.1713</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5995</v>
+        <v>0.1503</v>
       </c>
       <c r="B28" s="0">
-        <v>32.3434</v>
+        <v>21.3442</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6214</v>
+        <v>0.1228</v>
       </c>
       <c r="B29" s="0">
-        <v>33.0804</v>
+        <v>20.8164</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6432</v>
+        <v>0.0993</v>
       </c>
       <c r="B30" s="0">
-        <v>33.8932</v>
+        <v>20.1395</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.665</v>
+        <v>0.0775</v>
       </c>
       <c r="B31" s="0">
-        <v>34.5206</v>
+        <v>18.7897</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6868</v>
+        <v>0.0505</v>
       </c>
       <c r="B32" s="0">
-        <v>35.1816</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.7087</v>
-      </c>
-      <c r="B33" s="0">
-        <v>35.7668</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7305</v>
-      </c>
-      <c r="B34" s="0">
-        <v>36.6302</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7523</v>
-      </c>
-      <c r="B35" s="0">
-        <v>37.3925</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7742</v>
-      </c>
-      <c r="B36" s="0">
-        <v>38.0535</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.796</v>
-      </c>
-      <c r="B37" s="0">
-        <v>38.7483</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8178</v>
-      </c>
-      <c r="B38" s="0">
-        <v>39.4853</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8396</v>
-      </c>
-      <c r="B39" s="0">
-        <v>40.4668</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8615</v>
-      </c>
-      <c r="B40" s="0">
-        <v>41.3893</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8833</v>
-      </c>
-      <c r="B41" s="0">
-        <v>42.5901</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.9051</v>
-      </c>
-      <c r="B42" s="0">
-        <v>44.145</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.927</v>
-      </c>
-      <c r="B43" s="0">
-        <v>45.5807</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9488</v>
-      </c>
-      <c r="B44" s="0">
-        <v>48.5783</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9707</v>
-      </c>
-      <c r="B45" s="0">
-        <v>51.6604</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9817</v>
-      </c>
-      <c r="B46" s="0">
-        <v>55.0396</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9901</v>
-      </c>
-      <c r="B47" s="0">
-        <v>62.1207</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9858</v>
-      </c>
-      <c r="B48" s="0">
-        <v>58.1478</v>
-      </c>
-    </row>
-    <row r="49"/>
+        <v>14.3717</v>
+      </c>
+    </row>
+    <row r="33"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3486,7 +3358,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3507,333 +3379,245 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0487</v>
+        <v>0.0478</v>
       </c>
       <c r="B3" s="0">
-        <v>30.2188</v>
+        <v>30.2316</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0607</v>
+        <v>0.0783</v>
       </c>
       <c r="B4" s="0">
-        <v>34.7017</v>
+        <v>41.4581</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.07</v>
+        <v>0.0966</v>
       </c>
       <c r="B5" s="0">
-        <v>37.9299</v>
+        <v>43.4808</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0826</v>
+        <v>0.1196</v>
       </c>
       <c r="B6" s="0">
-        <v>41.9031</v>
+        <v>48.8708</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1036</v>
+        <v>0.1471</v>
       </c>
       <c r="B7" s="0">
-        <v>44.6188</v>
+        <v>53.4385</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.123</v>
+        <v>0.1712</v>
       </c>
       <c r="B8" s="0">
-        <v>49.1897</v>
+        <v>56.0605</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1473</v>
+        <v>0.1947</v>
       </c>
       <c r="B9" s="0">
-        <v>53.2925</v>
+        <v>57.4855</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1717</v>
+        <v>0.2211</v>
       </c>
       <c r="B10" s="0">
-        <v>55.8772</v>
+        <v>58.462</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1969</v>
+        <v>0.2486</v>
       </c>
       <c r="B11" s="0">
-        <v>57.4012</v>
+        <v>60.0372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2221</v>
+        <v>0.2709</v>
       </c>
       <c r="B12" s="0">
-        <v>58.4793</v>
+        <v>61.0131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2473</v>
+        <v>0.2956</v>
       </c>
       <c r="B13" s="0">
-        <v>59.8425</v>
+        <v>62.2138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2725</v>
+        <v>0.3448</v>
       </c>
       <c r="B14" s="0">
-        <v>60.9499</v>
+        <v>63.3434</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2977</v>
+        <v>0.3975</v>
       </c>
       <c r="B15" s="0">
-        <v>62.2254</v>
+        <v>64.6979</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3228</v>
+        <v>0.4468</v>
       </c>
       <c r="B16" s="0">
-        <v>62.675</v>
+        <v>65.9771</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.348</v>
+        <v>0.4961</v>
       </c>
       <c r="B17" s="0">
-        <v>63.2927</v>
+        <v>67.7051</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3732</v>
+        <v>0.5453</v>
       </c>
       <c r="B18" s="0">
-        <v>63.947</v>
+        <v>69.2088</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3984</v>
+        <v>0.5969</v>
       </c>
       <c r="B19" s="0">
-        <v>64.7036</v>
+        <v>70.1891</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4236</v>
+        <v>0.6479</v>
       </c>
       <c r="B20" s="0">
-        <v>65.2482</v>
+        <v>71.6929</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4488</v>
+        <v>0.6983</v>
       </c>
       <c r="B21" s="0">
-        <v>65.9317</v>
+        <v>73.0471</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.474</v>
+        <v>0.747</v>
       </c>
       <c r="B22" s="0">
-        <v>66.7979</v>
+        <v>74.1766</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4991</v>
+        <v>0.7951</v>
       </c>
       <c r="B23" s="0">
-        <v>67.7664</v>
+        <v>75.0816</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5243</v>
+        <v>0.8501</v>
       </c>
       <c r="B24" s="0">
-        <v>68.3987</v>
+        <v>76.2868</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5495</v>
+        <v>0.8719</v>
       </c>
       <c r="B25" s="0">
-        <v>69.1041</v>
+        <v>77.2626</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5747</v>
+        <v>0.8971</v>
       </c>
       <c r="B26" s="0">
-        <v>69.6561</v>
+        <v>78.239</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5999</v>
+        <v>0.9211</v>
       </c>
       <c r="B27" s="0">
-        <v>70.2738</v>
+        <v>79.664</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6251</v>
+        <v>0.9475</v>
       </c>
       <c r="B28" s="0">
-        <v>70.9719</v>
+        <v>80.5657</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6503</v>
+        <v>0.9613</v>
       </c>
       <c r="B29" s="0">
-        <v>71.7504</v>
+        <v>81.9892</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6754</v>
+        <v>0.9699</v>
       </c>
       <c r="B30" s="0">
-        <v>72.3242</v>
+        <v>83.1127</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7006</v>
+        <v>0.9808</v>
       </c>
       <c r="B31" s="0">
-        <v>73.0662</v>
+        <v>83.7876</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7258</v>
+        <v>0.9905</v>
       </c>
       <c r="B32" s="0">
-        <v>73.545</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.751</v>
-      </c>
-      <c r="B33" s="0">
-        <v>74.1481</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7762</v>
-      </c>
-      <c r="B34" s="0">
-        <v>74.5831</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.8014</v>
-      </c>
-      <c r="B35" s="0">
-        <v>75.1058</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.8265</v>
-      </c>
-      <c r="B36" s="0">
-        <v>75.6285</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.8517</v>
-      </c>
-      <c r="B37" s="0">
-        <v>76.385</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8769</v>
-      </c>
-      <c r="B38" s="0">
-        <v>77.3024</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.9021</v>
-      </c>
-      <c r="B39" s="0">
-        <v>78.5633</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.9273</v>
-      </c>
-      <c r="B40" s="0">
-        <v>79.8095</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.9538</v>
-      </c>
-      <c r="B41" s="0">
-        <v>81.067</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.9777</v>
-      </c>
-      <c r="B42" s="0">
-        <v>83.307</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9928</v>
-      </c>
-      <c r="B43" s="0">
-        <v>85.6664</v>
-      </c>
-    </row>
-    <row r="44"/>
+        <v>85.8091</v>
+      </c>
+    </row>
+    <row r="33"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3842,7 +3626,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3863,357 +3647,245 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.056</v>
+        <v>0.0548</v>
       </c>
       <c r="B3" s="0">
-        <v>39.8864</v>
+        <v>39.8087</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0633</v>
+        <v>0.079</v>
       </c>
       <c r="B4" s="0">
-        <v>44.0043</v>
+        <v>51.0343</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0709</v>
+        <v>0.0984</v>
       </c>
       <c r="B5" s="0">
-        <v>47.1135</v>
+        <v>53.1319</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0785</v>
+        <v>0.1283</v>
       </c>
       <c r="B6" s="0">
-        <v>50.5074</v>
+        <v>58.6726</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.097</v>
+        <v>0.1529</v>
       </c>
       <c r="B7" s="0">
-        <v>53.1914</v>
+        <v>63.0902</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1146</v>
+        <v>0.1782</v>
       </c>
       <c r="B8" s="0">
-        <v>56.6166</v>
+        <v>65.6376</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1315</v>
+        <v>0.204</v>
       </c>
       <c r="B9" s="0">
-        <v>59.3256</v>
+        <v>66.9133</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1508</v>
+        <v>0.2286</v>
       </c>
       <c r="B10" s="0">
-        <v>62.7302</v>
+        <v>68.2636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1726</v>
+        <v>0.2515</v>
       </c>
       <c r="B11" s="0">
-        <v>65.2428</v>
+        <v>69.3893</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1962</v>
+        <v>0.2779</v>
       </c>
       <c r="B12" s="0">
-        <v>66.6044</v>
+        <v>70.4406</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2197</v>
+        <v>0.3031</v>
       </c>
       <c r="B13" s="0">
-        <v>67.8273</v>
+        <v>71.6414</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2432</v>
+        <v>0.3512</v>
       </c>
       <c r="B14" s="0">
-        <v>69.0609</v>
+        <v>72.9952</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2667</v>
+        <v>0.4016</v>
       </c>
       <c r="B15" s="0">
-        <v>70.0078</v>
+        <v>74.1997</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2902</v>
+        <v>0.4492</v>
       </c>
       <c r="B16" s="0">
-        <v>71.072</v>
+        <v>75.5535</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3137</v>
+        <v>0.499</v>
       </c>
       <c r="B17" s="0">
-        <v>72.1009</v>
+        <v>77.2068</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3372</v>
+        <v>0.5466</v>
       </c>
       <c r="B18" s="0">
-        <v>72.8118</v>
+        <v>78.5606</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3607</v>
+        <v>0.5958</v>
       </c>
       <c r="B19" s="0">
-        <v>73.3714</v>
+        <v>79.9894</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3842</v>
+        <v>0.6543</v>
       </c>
       <c r="B20" s="0">
-        <v>74.017</v>
+        <v>81.27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4077</v>
+        <v>0.6984</v>
       </c>
       <c r="B21" s="0">
-        <v>74.506</v>
+        <v>82.7728</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4312</v>
+        <v>0.7499</v>
       </c>
       <c r="B22" s="0">
-        <v>75.3161</v>
+        <v>83.6035</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4547</v>
+        <v>0.7981</v>
       </c>
       <c r="B23" s="0">
-        <v>75.8676</v>
+        <v>84.6581</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4783</v>
+        <v>0.8473</v>
       </c>
       <c r="B24" s="0">
-        <v>76.8423</v>
+        <v>85.7876</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5018</v>
+        <v>0.8725</v>
       </c>
       <c r="B25" s="0">
-        <v>77.3549</v>
+        <v>87.138</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5253</v>
+        <v>0.8972</v>
       </c>
       <c r="B26" s="0">
-        <v>78.2119</v>
+        <v>87.8899</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5488</v>
+        <v>0.9235</v>
       </c>
       <c r="B27" s="0">
-        <v>78.6931</v>
+        <v>89.3152</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5723</v>
+        <v>0.947</v>
       </c>
       <c r="B28" s="0">
-        <v>79.558</v>
+        <v>90.441</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5958</v>
+        <v>0.9614</v>
       </c>
       <c r="B29" s="0">
-        <v>79.9753</v>
+        <v>91.7897</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6193</v>
+        <v>0.9717</v>
       </c>
       <c r="B30" s="0">
-        <v>80.7475</v>
+        <v>92.6142</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6428</v>
+        <v>0.9808</v>
       </c>
       <c r="B31" s="0">
-        <v>81.1321</v>
+        <v>93.5133</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6663</v>
+        <v>0.9906</v>
       </c>
       <c r="B32" s="0">
-        <v>81.6971</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.6898</v>
-      </c>
-      <c r="B33" s="0">
-        <v>82.4574</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7133</v>
-      </c>
-      <c r="B34" s="0">
-        <v>83.0372</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7368</v>
-      </c>
-      <c r="B35" s="0">
-        <v>83.4981</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7603</v>
-      </c>
-      <c r="B36" s="0">
-        <v>83.9218</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7838</v>
-      </c>
-      <c r="B37" s="0">
-        <v>84.437</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8073</v>
-      </c>
-      <c r="B38" s="0">
-        <v>84.8895</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8308</v>
-      </c>
-      <c r="B39" s="0">
-        <v>85.5873</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8543</v>
-      </c>
-      <c r="B40" s="0">
-        <v>86.1462</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8779</v>
-      </c>
-      <c r="B41" s="0">
-        <v>87.1601</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.9014</v>
-      </c>
-      <c r="B42" s="0">
-        <v>88.0985</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9249</v>
-      </c>
-      <c r="B43" s="0">
-        <v>89.2714</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9484</v>
-      </c>
-      <c r="B44" s="0">
-        <v>90.5331</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9724</v>
-      </c>
-      <c r="B45" s="0">
-        <v>92.6117</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9886</v>
-      </c>
-      <c r="B46" s="0">
-        <v>94.3665</v>
-      </c>
-    </row>
-    <row r="47"/>
+        <v>95.4599</v>
+      </c>
+    </row>
+    <row r="33"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 125 Comparison of Activated Carbons/Data125_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 125 Comparison of Activated Carbons/Data125_all_graphs_excel.xlsx
@@ -5,25 +5,28 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 3 400  0&amp;1&amp;0&amp;120 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 3 600  0&amp;1&amp;0&amp;120 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 3 800  0&amp;1&amp;0&amp;120 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 4 400stC  0&amp;1&amp;0&amp;60 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 4 600stC  0&amp;1&amp;0&amp;60 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 4 800stC  0&amp;1&amp;0&amp;60 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 7 2h  0&amp;1&amp;0&amp;200 " sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 7 4h  0&amp;1&amp;0&amp;200 " sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 7 6h  0&amp;1&amp;0&amp;200 " sheetId="9" r:id="rId11"/>
-    <sheet name="Figure 8 2h  0&amp;1&amp;0&amp;100 " sheetId="10" r:id="rId12"/>
-    <sheet name="Figure 8 4h  0&amp;1&amp;0&amp;100 " sheetId="11" r:id="rId13"/>
-    <sheet name="Figure 8 6h  0&amp;1&amp;0&amp;100 " sheetId="12" r:id="rId14"/>
+    <sheet name="Figure 3 bengkirai_wood_400  0&amp;" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 bengkirai_wood_600  0&amp;" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3 bengkirai_wood_800  0&amp;" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 4 coconut_shells_400stC " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 4 coconut_shells_600stC " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 4 coconut_shells_800stC " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 7 coconut_shells_2h  0&amp;1" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 7 coconut_shells_4h  0&amp;1" sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 7 coconut_shells_6h  0&amp;1" sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 8 bengkirai_wood_2h  0&amp;1" sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 8 bengkirai_wood_4h  0&amp;1" sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 8 bengkirai_wood_6h  0&amp;1" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>bengkirai_wood_400</t>
+  </si>
   <si>
     <t>X</t>
   </si>
@@ -31,22 +34,37 @@
     <t>Y</t>
   </si>
   <si>
-    <t>400stC</t>
+    <t>bengkirai_wood_600</t>
   </si>
   <si>
-    <t>600stC</t>
+    <t>bengkirai_wood_800</t>
   </si>
   <si>
-    <t>800stC</t>
+    <t>coconut_shells_400stC</t>
   </si>
   <si>
-    <t>2h</t>
+    <t>coconut_shells_600stC</t>
   </si>
   <si>
-    <t>4h</t>
+    <t>coconut_shells_800stC</t>
   </si>
   <si>
-    <t>6h</t>
+    <t>coconut_shells_2h</t>
+  </si>
+  <si>
+    <t>coconut_shells_4h</t>
+  </si>
+  <si>
+    <t>coconut_shells_6h</t>
+  </si>
+  <si>
+    <t>bengkirai_wood_2h</t>
+  </si>
+  <si>
+    <t>bengkirai_wood_4h</t>
+  </si>
+  <si>
+    <t>bengkirai_wood_6h</t>
   </si>
 </sst>
 </file>
@@ -123,7 +141,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 400 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki bengkirai_wood_400 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -182,12 +200,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 400  0&amp;1&amp;0&amp;120 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 bengkirai_wood_400  0&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 400  0&amp;1&amp;0&amp;120 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 bengkirai_wood_400  0&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -437,7 +455,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 2h z wykresu 'Figure 8' </a:t>
+              <a:t>Izoterma adsorpcji probki bengkirai_wood_2h z wykresu 'Figure 8' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -496,12 +514,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 8 2h  0&amp;1&amp;0&amp;100 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 8 bengkirai_wood_2h  0&amp;1'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 8 2h  0&amp;1&amp;0&amp;100 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 8 bengkirai_wood_2h  0&amp;1'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -751,7 +769,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 4h z wykresu 'Figure 8' </a:t>
+              <a:t>Izoterma adsorpcji probki bengkirai_wood_4h z wykresu 'Figure 8' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -810,12 +828,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 8 4h  0&amp;1&amp;0&amp;100 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 8 bengkirai_wood_4h  0&amp;1'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 8 4h  0&amp;1&amp;0&amp;100 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 8 bengkirai_wood_4h  0&amp;1'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1065,7 +1083,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 6h z wykresu 'Figure 8' </a:t>
+              <a:t>Izoterma adsorpcji probki bengkirai_wood_6h z wykresu 'Figure 8' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1124,12 +1142,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 8 6h  0&amp;1&amp;0&amp;100 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 8 bengkirai_wood_6h  0&amp;1'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 8 6h  0&amp;1&amp;0&amp;100 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 8 bengkirai_wood_6h  0&amp;1'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1379,7 +1397,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 600 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki bengkirai_wood_600 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1438,12 +1456,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 600  0&amp;1&amp;0&amp;120 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 bengkirai_wood_600  0&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 600  0&amp;1&amp;0&amp;120 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 bengkirai_wood_600  0&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1693,7 +1711,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 800 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki bengkirai_wood_800 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1752,12 +1770,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 800  0&amp;1&amp;0&amp;120 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 bengkirai_wood_800  0&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 800  0&amp;1&amp;0&amp;120 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 bengkirai_wood_800  0&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2007,7 +2025,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 400stC z wykresu 'Figure 4' </a:t>
+              <a:t>Izoterma adsorpcji probki coconut_shells_400stC z wykresu 'Figure 4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2066,12 +2084,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 400stC  0&amp;1&amp;0&amp;60 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 coconut_shells_400stC '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 400stC  0&amp;1&amp;0&amp;60 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 coconut_shells_400stC '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2321,7 +2339,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 600stC z wykresu 'Figure 4' </a:t>
+              <a:t>Izoterma adsorpcji probki coconut_shells_600stC z wykresu 'Figure 4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2380,12 +2398,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 600stC  0&amp;1&amp;0&amp;60 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 coconut_shells_600stC '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 600stC  0&amp;1&amp;0&amp;60 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 coconut_shells_600stC '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2635,7 +2653,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 800stC z wykresu 'Figure 4' </a:t>
+              <a:t>Izoterma adsorpcji probki coconut_shells_800stC z wykresu 'Figure 4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2694,12 +2712,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 800stC  0&amp;1&amp;0&amp;60 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 coconut_shells_800stC '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 800stC  0&amp;1&amp;0&amp;60 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 coconut_shells_800stC '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2949,7 +2967,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 2h z wykresu 'Figure 7' </a:t>
+              <a:t>Izoterma adsorpcji probki coconut_shells_2h z wykresu 'Figure 7' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3008,12 +3026,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 7 2h  0&amp;1&amp;0&amp;200 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 7 coconut_shells_2h  0&amp;1'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 7 2h  0&amp;1&amp;0&amp;200 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 7 coconut_shells_2h  0&amp;1'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3263,7 +3281,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 4h z wykresu 'Figure 7' </a:t>
+              <a:t>Izoterma adsorpcji probki coconut_shells_4h z wykresu 'Figure 7' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3322,12 +3340,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 7 4h  0&amp;1&amp;0&amp;200 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 7 coconut_shells_4h  0&amp;1'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 7 4h  0&amp;1&amp;0&amp;200 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 7 coconut_shells_4h  0&amp;1'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3577,7 +3595,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 6h z wykresu 'Figure 7' </a:t>
+              <a:t>Izoterma adsorpcji probki coconut_shells_6h z wykresu 'Figure 7' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3636,12 +3654,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 7 6h  0&amp;1&amp;0&amp;200 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 7 coconut_shells_6h  0&amp;1'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 7 6h  0&amp;1&amp;0&amp;200 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 7 coconut_shells_6h  0&amp;1'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -11314,16 +11332,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0">
-        <v>400</v>
+      <c r="A1" s="0" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -11583,15 +11601,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -11867,15 +11885,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -12151,15 +12169,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -12426,16 +12444,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0">
-        <v>600</v>
+      <c r="A1" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -12694,16 +12712,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0">
-        <v>800</v>
+      <c r="A1" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -12963,15 +12981,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -13231,15 +13249,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -13483,15 +13501,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -13735,15 +13753,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -13979,15 +13997,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -14247,15 +14265,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
